--- a/src/main/resources/loginpage.xlsx
+++ b/src/main/resources/loginpage.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosmi Joseph\IdeaProjects\buffalocart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769D6A1A-A974-4ACA-845B-6B593F405007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417789F9-54AD-4CD8-A60B-84084D21244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="homepage" sheetId="2" r:id="rId2"/>
-    <sheet name="resetpasswordpage" sheetId="4" r:id="rId3"/>
-    <sheet name="userpage" sheetId="6" r:id="rId4"/>
+    <sheet name="UserManagementPage" sheetId="12" r:id="rId3"/>
+    <sheet name="resetpasswordpage" sheetId="4" r:id="rId4"/>
+    <sheet name="userpage" sheetId="6" r:id="rId5"/>
+    <sheet name="adduser" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
+    <sheet name="rolespage" sheetId="8" r:id="rId8"/>
+    <sheet name="addrole" sheetId="9" r:id="rId9"/>
+    <sheet name="salespage" sheetId="10" r:id="rId10"/>
+    <sheet name="edituser" sheetId="11" r:id="rId11"/>
+    <sheet name="editrole" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Title</t>
   </si>
@@ -76,13 +84,49 @@
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>Add user - Lloll</t>
+  </si>
+  <si>
+    <t>Roles - Lloll</t>
+  </si>
+  <si>
+    <t>Add Role - Lloll</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents - Lloll</t>
+  </si>
+  <si>
+    <t>Edit user - Lloll</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>Edit Role - Lloll</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>test1238@gmail.com</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +167,19 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -155,6 +212,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,6 +549,98 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EE5101-F6A7-4E12-9828-67E63F964F1E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8808632-198C-4DD1-AED6-807828600EBF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="64.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49903031-9B12-484C-9F4B-7FB3D2B86DF8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C87B58E-09FE-491E-9121-7E666FF40FDA}">
   <dimension ref="A1:B2"/>
@@ -525,6 +676,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B792A43-8D4C-400C-B40E-4699C8168A4B}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="21.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5095F37-3158-4A6A-9A01-67C5E247E6C2}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -556,47 +736,171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90595502-4722-4191-BF5D-A655162C5A6D}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="36.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC7DA05-3716-42BB-AE41-C72B45CBFE10}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB57C5A-537F-4592-971F-AC38FDB4E149}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EFBA7C-9070-4A2F-B0AF-3397B328AF5F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F6CED9-84E5-40E8-B594-532DC45EE9F0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>